--- a/codes.xlsx
+++ b/codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\byates\OneDrive - Roswell Independent School District\Documents\GitHub\gamCreate4Chromebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{8DCFCB8D-105D-49C8-9CB4-3FF0CC0E947C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{C467BFE5-8B09-426A-B787-B8FC0752D78D}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="13_ncr:1_{8DCFCB8D-105D-49C8-9CB4-3FF0CC0E947C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{9D1D0A40-9968-41C3-AEE8-21FCEC568FB4}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{E05A1B20-41DA-48C0-BE76-3A13FD40B8EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="60">
   <si>
     <t>SUN</t>
   </si>
@@ -96,24 +96,15 @@
     <t>/STUDENTS/ELEMENTARY/ECE</t>
   </si>
   <si>
-    <t>/STUDENTS/ELEMENTARY/NLE</t>
-  </si>
-  <si>
     <t>/STUDENTS/ELEMENTARY/MHE</t>
   </si>
   <si>
-    <t>/STUDENTS/ELEMENTARY/MAE</t>
-  </si>
-  <si>
     <t>/STUDENTS/ELEMENTARY/MON</t>
   </si>
   <si>
     <t>/STUDENTS/ELEMENTARY/SUN</t>
   </si>
   <si>
-    <t>/STUDENTS/ELEMENTARY/PES</t>
-  </si>
-  <si>
     <t>/STUDENTS/ELEMENTARY/VVE</t>
   </si>
   <si>
@@ -135,9 +126,6 @@
     <t>/STUDENTS/HIGH/ECHS</t>
   </si>
   <si>
-    <t>ecarr@risd.k12.nm.us</t>
-  </si>
-  <si>
     <t>Notes (optional)</t>
   </si>
   <si>
@@ -181,15 +169,6 @@
   </si>
   <si>
     <t>annotatedUser (required)</t>
-  </si>
-  <si>
-    <t>BES Cart 1</t>
-  </si>
-  <si>
-    <t>SMS Cart 12 2021</t>
-  </si>
-  <si>
-    <t>BMS Cart 5 2021</t>
   </si>
   <si>
     <t>Connie's FA sheet gives us the serial number, tag number and school.  If a provisioned chromebook in the / OU has the annotatedUser matching the email in C, then the program will move them to the OU in B (creating the OU first if needed), add any notes/location from D/E, and update the annotatedAssetId to SchoolInitialsCB-Tag#.  If F is yes, it will also add those records to a file named 
@@ -197,13 +176,43 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>NOTecarr@risd.k12.nm.us</t>
+  </si>
+  <si>
+    <t>SMS Cart 15 2021</t>
+  </si>
+  <si>
+    <t>NOTbgreen@risd.k12.nm.us</t>
+  </si>
+  <si>
+    <t>highlighed ones are appended to B</t>
+  </si>
+  <si>
+    <t>/STUDENTS/ELEMENTARY/MAE</t>
+  </si>
+  <si>
+    <t>NOTechapman@risd.k12.nm.us</t>
+  </si>
+  <si>
+    <t>jsoltero@risd.k12.nm.us</t>
+  </si>
+  <si>
+    <t>/STUDENTS/ELEMENTARY/NLE/NLE Cart 2 2021</t>
+  </si>
+  <si>
+    <t>Cart 2 2021</t>
+  </si>
+  <si>
+    <t>/STUDENTS/ELEMENTARY/PEC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +231,13 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -272,13 +288,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -600,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C421889-FA5C-464A-8D13-446AC86F09C6}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G22"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,39 +635,39 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>55</v>
+        <v>36</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C2" s="1"/>
       <c r="F2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="6"/>
+        <v>49</v>
+      </c>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -658,21 +675,19 @@
       </c>
       <c r="B3" t="str">
         <f>"/STUDENTS/ELEMENTARY/BES/"&amp;D3</f>
-        <v>/STUDENTS/ELEMENTARY/BES/BES Cart 1</v>
+        <v>/STUDENTS/ELEMENTARY/BES/</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>52</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D3" s="5"/>
       <c r="E3" t="s">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -682,9 +697,9 @@
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -693,10 +708,13 @@
       <c r="B5" t="s">
         <v>21</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -705,106 +723,130 @@
       <c r="B6" t="s">
         <v>22</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>57</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>54</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>59</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -812,45 +854,43 @@
       </c>
       <c r="B15" t="str">
         <f>"/STUDENTS/MIDDLE/BMS/"&amp;D15</f>
-        <v>/STUDENTS/MIDDLE/BMS/BMS Cart 5 2021</v>
+        <v>/STUDENTS/MIDDLE/BMS/</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>54</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D15" s="5"/>
       <c r="E15" t="s">
         <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -858,90 +898,95 @@
       </c>
       <c r="B18" t="str">
         <f>"/STUDENTS/MIDDLE/SMS/"&amp;D18</f>
-        <v>/STUDENTS/MIDDLE/SMS/SMS Cart 12 2021</v>
+        <v>/STUDENTS/MIDDLE/SMS/SMS Cart 15 2021</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E18" t="s">
         <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="G18" s="8"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="G19" s="8"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="G21" s="8"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="G22" s="8"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F23" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -954,11 +999,17 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C23" r:id="rId1" xr:uid="{6A30E459-D0EF-4355-B0B2-E160C309B95F}"/>
-    <hyperlink ref="C18" r:id="rId2" display="NOTecarr@risd.k12.nm.us" xr:uid="{60091181-5DA7-4569-989F-88B11E66CC76}"/>
-    <hyperlink ref="C15" r:id="rId3" display="NOTecarr@risd.k12.nm.us" xr:uid="{4DA3FB6D-2BE0-4B86-AFA9-433AA1999843}"/>
-    <hyperlink ref="C3" r:id="rId4" display="NOTecarr@risd.k12.nm.us" xr:uid="{149FAA1F-CAC7-429B-91BD-095EDFC4D6FE}"/>
+    <hyperlink ref="C18" r:id="rId2" xr:uid="{60091181-5DA7-4569-989F-88B11E66CC76}"/>
+    <hyperlink ref="C15" r:id="rId3" xr:uid="{4DA3FB6D-2BE0-4B86-AFA9-433AA1999843}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{149FAA1F-CAC7-429B-91BD-095EDFC4D6FE}"/>
+    <hyperlink ref="C5" r:id="rId5" xr:uid="{60B4293C-078B-4259-8200-8939C121997C}"/>
+    <hyperlink ref="C6" r:id="rId6" xr:uid="{26EC1B34-1EFE-4A50-8231-C65D177DFCD2}"/>
+    <hyperlink ref="C9" r:id="rId7" xr:uid="{077FF283-52B3-49B7-9C11-E753CCEE475F}"/>
+    <hyperlink ref="C13" r:id="rId8" xr:uid="{89E22D32-DF9C-44FF-AD6E-7299409A03A9}"/>
+    <hyperlink ref="C12" r:id="rId9" xr:uid="{AF78A707-B47D-4B60-9717-08D65B0FA85F}"/>
+    <hyperlink ref="C7" r:id="rId10" xr:uid="{32D3FDCB-C409-46DD-ADD4-B687E129D47C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId11"/>
 </worksheet>
 </file>
--- a/codes.xlsx
+++ b/codes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20374"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\byates\OneDrive - Roswell Independent School District\Documents\GitHub\gamCreate4Chromebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="87" documentId="13_ncr:1_{8DCFCB8D-105D-49C8-9CB4-3FF0CC0E947C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{9D1D0A40-9968-41C3-AEE8-21FCEC568FB4}"/>
+  <xr:revisionPtr revIDLastSave="109" documentId="13_ncr:1_{8DCFCB8D-105D-49C8-9CB4-3FF0CC0E947C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{D194E499-674F-42E3-9116-07CB4E09CC83}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{E05A1B20-41DA-48C0-BE76-3A13FD40B8EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
   <si>
     <t>SUN</t>
   </si>
@@ -160,9 +160,6 @@
   </si>
   <si>
     <t>/ADMIN</t>
-  </si>
-  <si>
-    <t>Target OU (created if needed)</t>
   </si>
   <si>
     <t>School</t>
@@ -181,9 +178,6 @@
     <t>NOTecarr@risd.k12.nm.us</t>
   </si>
   <si>
-    <t>SMS Cart 15 2021</t>
-  </si>
-  <si>
     <t>NOTbgreen@risd.k12.nm.us</t>
   </si>
   <si>
@@ -196,16 +190,22 @@
     <t>NOTechapman@risd.k12.nm.us</t>
   </si>
   <si>
-    <t>jsoltero@risd.k12.nm.us</t>
-  </si>
-  <si>
-    <t>/STUDENTS/ELEMENTARY/NLE/NLE Cart 2 2021</t>
-  </si>
-  <si>
-    <t>Cart 2 2021</t>
-  </si>
-  <si>
     <t>/STUDENTS/ELEMENTARY/PEC</t>
+  </si>
+  <si>
+    <t>NOTjsoltero@risd.k12.nm.us</t>
+  </si>
+  <si>
+    <t>Target OU (created if needed) (NEW EACH TIME)</t>
+  </si>
+  <si>
+    <t>/STUDENTS/ELEMENTARY/NLE/</t>
+  </si>
+  <si>
+    <t>ecarr@risd.k12.nm.us</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BES Cart 4 2021 </t>
   </si>
 </sst>
 </file>
@@ -620,7 +620,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,13 +635,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
         <v>46</v>
-      </c>
-      <c r="B1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" t="s">
-        <v>47</v>
       </c>
       <c r="D1" t="s">
         <v>33</v>
@@ -653,7 +653,7 @@
         <v>36</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -665,7 +665,7 @@
       </c>
       <c r="C2" s="1"/>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G2" s="7"/>
     </row>
@@ -675,12 +675,14 @@
       </c>
       <c r="B3" t="str">
         <f>"/STUDENTS/ELEMENTARY/BES/"&amp;D3</f>
-        <v>/STUDENTS/ELEMENTARY/BES/</v>
+        <v xml:space="preserve">/STUDENTS/ELEMENTARY/BES/BES Cart 4 2021 </v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="5"/>
+        <v>58</v>
+      </c>
+      <c r="D3" t="s">
+        <v>59</v>
+      </c>
       <c r="E3" t="s">
         <v>2</v>
       </c>
@@ -709,7 +711,7 @@
         <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F5" t="s">
         <v>34</v>
@@ -724,7 +726,7 @@
         <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F6" t="s">
         <v>34</v>
@@ -739,11 +741,9 @@
         <v>57</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>58</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D7" s="6"/>
       <c r="E7" t="s">
         <v>9</v>
       </c>
@@ -769,10 +769,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -811,10 +811,10 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F12" t="s">
         <v>34</v>
@@ -829,7 +829,7 @@
         <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F13" t="s">
         <v>34</v>
@@ -857,7 +857,7 @@
         <v>/STUDENTS/MIDDLE/BMS/</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" t="s">
@@ -898,14 +898,12 @@
       </c>
       <c r="B18" t="str">
         <f>"/STUDENTS/MIDDLE/SMS/"&amp;D18</f>
-        <v>/STUDENTS/MIDDLE/SMS/SMS Cart 15 2021</v>
+        <v>/STUDENTS/MIDDLE/SMS/</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>51</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D18" s="5"/>
       <c r="E18" t="s">
         <v>13</v>
       </c>
@@ -985,14 +983,14 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G1:G22"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F23" xr:uid="{3CA40D1C-9639-4BC9-8E26-59271DC4B632}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>

--- a/codes.xlsx
+++ b/codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\byates\OneDrive - Roswell Independent School District\Documents\GitHub\gamCreate4Chromebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="109" documentId="13_ncr:1_{8DCFCB8D-105D-49C8-9CB4-3FF0CC0E947C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{D194E499-674F-42E3-9116-07CB4E09CC83}"/>
+  <xr:revisionPtr revIDLastSave="113" documentId="13_ncr:1_{8DCFCB8D-105D-49C8-9CB4-3FF0CC0E947C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{581889FA-40B9-4525-A38F-14D86CC3F6A4}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{E05A1B20-41DA-48C0-BE76-3A13FD40B8EE}"/>
   </bookViews>
@@ -205,7 +205,7 @@
     <t>ecarr@risd.k12.nm.us</t>
   </si>
   <si>
-    <t xml:space="preserve">BES Cart 4 2021 </t>
+    <t>blah/BES Cart 5 2021</t>
   </si>
 </sst>
 </file>
@@ -620,7 +620,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,7 +675,7 @@
       </c>
       <c r="B3" t="str">
         <f>"/STUDENTS/ELEMENTARY/BES/"&amp;D3</f>
-        <v xml:space="preserve">/STUDENTS/ELEMENTARY/BES/BES Cart 4 2021 </v>
+        <v>/STUDENTS/ELEMENTARY/BES/blah/BES Cart 5 2021</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>58</v>
@@ -687,7 +687,7 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G3" s="7"/>
     </row>
@@ -699,7 +699,7 @@
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G4" s="7"/>
     </row>
@@ -714,7 +714,7 @@
         <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G5" s="7"/>
     </row>
@@ -729,7 +729,7 @@
         <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G6" s="7"/>
     </row>
@@ -748,7 +748,7 @@
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G7" s="7"/>
     </row>
@@ -760,7 +760,7 @@
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7"/>
     </row>
@@ -778,7 +778,7 @@
         <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G9" s="7"/>
     </row>
@@ -790,7 +790,7 @@
         <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G10" s="7"/>
     </row>
@@ -802,7 +802,7 @@
         <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G11" s="8"/>
     </row>
@@ -817,7 +817,7 @@
         <v>53</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G12" s="8"/>
     </row>
@@ -832,7 +832,7 @@
         <v>50</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G13" s="8"/>
     </row>
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G14" s="8"/>
     </row>
@@ -864,7 +864,7 @@
         <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G15" s="8"/>
     </row>
@@ -876,7 +876,7 @@
         <v>28</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G16" s="8"/>
     </row>
@@ -888,7 +888,7 @@
         <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G17" s="8"/>
     </row>
@@ -908,7 +908,7 @@
         <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G18" s="8"/>
     </row>
@@ -920,7 +920,7 @@
         <v>30</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G19" s="8"/>
     </row>
@@ -932,7 +932,7 @@
         <v>31</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G20" s="8"/>
     </row>
@@ -944,7 +944,7 @@
         <v>32</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G21" s="8"/>
     </row>
@@ -956,7 +956,7 @@
         <v>42</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G22" s="8"/>
     </row>
@@ -990,7 +990,7 @@
   <mergeCells count="1">
     <mergeCell ref="G1:G22"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F23" xr:uid="{3CA40D1C-9639-4BC9-8E26-59271DC4B632}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>

--- a/codes.xlsx
+++ b/codes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20375"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20377"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://roswellisd-my.sharepoint.com/personal/byates_risd_k12_nm_us/Documents/Documents/GitHub/gamCreate4Chromebooks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\byates\OneDrive - Roswell Independent School District\Documents\GitHub\gamCreate4Chromebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AC1FFD2-A1D0-4611-A1FA-72978FB2CC64}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="5_{32EFC00F-F253-478B-8C39-28CD457A6C22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{5C1B2152-13DA-4A6A-BE41-F1B6C6E5B114}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{E05A1B20-41DA-48C0-BE76-3A13FD40B8EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="62">
   <si>
     <t>SUN</t>
   </si>
@@ -154,12 +154,6 @@
   </si>
   <si>
     <t>/STUDENTS/HIGH/RHS/PenaltyBox3</t>
-  </si>
-  <si>
-    <t>ADMIN</t>
-  </si>
-  <si>
-    <t>/ADMIN</t>
   </si>
   <si>
     <t>School</t>
@@ -199,10 +193,25 @@
     <t>blah/BES Cart 5 2021</t>
   </si>
   <si>
-    <t>jsoltero@risd.k12.nm.us</t>
-  </si>
-  <si>
     <t>Cart 4 2021</t>
+  </si>
+  <si>
+    <t>NOTjsoltero@risd.k12.nm.us</t>
+  </si>
+  <si>
+    <t>aholm@risd.k12.nm.us</t>
+  </si>
+  <si>
+    <t>Cart 26 2021</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>/STUDENTS/MG200/Cart 3</t>
+  </si>
+  <si>
+    <t>ckirk@risd.k12.nm.us</t>
   </si>
 </sst>
 </file>
@@ -285,20 +294,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -617,7 +632,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,13 +647,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1" t="s">
         <v>33</v>
@@ -649,22 +664,25 @@
       <c r="F1" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>47</v>
+      <c r="G1" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="9"/>
       <c r="F2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -675,18 +693,18 @@
         <v>/STUDENTS/ELEMENTARY/BES/blah/BES Cart 5 2021</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -696,9 +714,9 @@
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -708,12 +726,12 @@
         <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -723,12 +741,12 @@
         <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -739,10 +757,10 @@
         <v>/STUDENTS/ELEMENTARY/NLE/Cart 4 2021</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -750,7 +768,7 @@
       <c r="F7" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="6"/>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -760,27 +778,27 @@
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -790,9 +808,9 @@
         <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -802,24 +820,24 @@
         <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="7"/>
+        <v>46</v>
+      </c>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="7"/>
+        <v>46</v>
+      </c>
+      <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -829,12 +847,12 @@
         <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="7"/>
+        <v>46</v>
+      </c>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -844,9 +862,9 @@
         <v>27</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" s="7"/>
+        <v>46</v>
+      </c>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -857,16 +875,16 @@
         <v>/STUDENTS/MIDDLE/BMS/</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" t="s">
         <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="7"/>
+        <v>46</v>
+      </c>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -876,9 +894,9 @@
         <v>28</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="7"/>
+        <v>46</v>
+      </c>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -888,9 +906,9 @@
         <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>48</v>
-      </c>
-      <c r="G17" s="7"/>
+        <v>46</v>
+      </c>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -898,19 +916,21 @@
       </c>
       <c r="B18" t="str">
         <f>"/STUDENTS/MIDDLE/SMS/"&amp;D18</f>
-        <v>/STUDENTS/MIDDLE/SMS/</v>
+        <v>/STUDENTS/MIDDLE/SMS/Cart 26 2021</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="5"/>
+        <v>57</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="E18" t="s">
         <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="G18" s="8"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -920,9 +940,9 @@
         <v>30</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="7"/>
+        <v>46</v>
+      </c>
+      <c r="G19" s="8"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -932,9 +952,9 @@
         <v>31</v>
       </c>
       <c r="F20" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="7"/>
+        <v>46</v>
+      </c>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -944,9 +964,9 @@
         <v>32</v>
       </c>
       <c r="F21" t="s">
-        <v>48</v>
-      </c>
-      <c r="G21" s="7"/>
+        <v>46</v>
+      </c>
+      <c r="G21" s="8"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -956,9 +976,9 @@
         <v>42</v>
       </c>
       <c r="F22" t="s">
-        <v>48</v>
-      </c>
-      <c r="G22" s="7"/>
+        <v>46</v>
+      </c>
+      <c r="G22" s="8"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -983,7 +1003,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -996,19 +1016,20 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C23" r:id="rId1" xr:uid="{6A30E459-D0EF-4355-B0B2-E160C309B95F}"/>
-    <hyperlink ref="C18" r:id="rId2" xr:uid="{60091181-5DA7-4569-989F-88B11E66CC76}"/>
-    <hyperlink ref="C15" r:id="rId3" xr:uid="{4DA3FB6D-2BE0-4B86-AFA9-433AA1999843}"/>
-    <hyperlink ref="C3" r:id="rId4" xr:uid="{149FAA1F-CAC7-429B-91BD-095EDFC4D6FE}"/>
-    <hyperlink ref="C5" r:id="rId5" xr:uid="{60B4293C-078B-4259-8200-8939C121997C}"/>
-    <hyperlink ref="C6" r:id="rId6" xr:uid="{26EC1B34-1EFE-4A50-8231-C65D177DFCD2}"/>
-    <hyperlink ref="C9" r:id="rId7" xr:uid="{077FF283-52B3-49B7-9C11-E753CCEE475F}"/>
-    <hyperlink ref="C13" r:id="rId8" xr:uid="{89E22D32-DF9C-44FF-AD6E-7299409A03A9}"/>
-    <hyperlink ref="C12" r:id="rId9" xr:uid="{AF78A707-B47D-4B60-9717-08D65B0FA85F}"/>
-    <hyperlink ref="C7" r:id="rId10" xr:uid="{32D3FDCB-C409-46DD-ADD4-B687E129D47C}"/>
+    <hyperlink ref="C18" r:id="rId1" xr:uid="{60091181-5DA7-4569-989F-88B11E66CC76}"/>
+    <hyperlink ref="C15" r:id="rId2" xr:uid="{4DA3FB6D-2BE0-4B86-AFA9-433AA1999843}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{149FAA1F-CAC7-429B-91BD-095EDFC4D6FE}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{60B4293C-078B-4259-8200-8939C121997C}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{26EC1B34-1EFE-4A50-8231-C65D177DFCD2}"/>
+    <hyperlink ref="C9" r:id="rId6" xr:uid="{077FF283-52B3-49B7-9C11-E753CCEE475F}"/>
+    <hyperlink ref="C13" r:id="rId7" xr:uid="{89E22D32-DF9C-44FF-AD6E-7299409A03A9}"/>
+    <hyperlink ref="C12" r:id="rId8" xr:uid="{AF78A707-B47D-4B60-9717-08D65B0FA85F}"/>
+    <hyperlink ref="C7" r:id="rId9" xr:uid="{32D3FDCB-C409-46DD-ADD4-B687E129D47C}"/>
+    <hyperlink ref="C23" r:id="rId10" xr:uid="{6A30E459-D0EF-4355-B0B2-E160C309B95F}"/>
+    <hyperlink ref="C2" r:id="rId11" xr:uid="{F82197FE-4E97-412A-BAB8-A1C65F2BF160}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId11"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId12"/>
 </worksheet>
 </file>
 
@@ -1236,18 +1257,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1270,26 +1291,26 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42A5F74E-4F43-4A1D-8B62-45AB95E0A648}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="b27e6a30-261d-448b-adb1-418fc6231249"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="505a872f-7ec8-4823-9440-0c089cfaa18d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23E0A224-CA41-4EBD-8337-0ECC8B66E019}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42A5F74E-4F43-4A1D-8B62-45AB95E0A648}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="b27e6a30-261d-448b-adb1-418fc6231249"/>
-    <ds:schemaRef ds:uri="505a872f-7ec8-4823-9440-0c089cfaa18d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>